--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2820527.601774991</v>
+        <v>2818114.689269185</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8569031.275369717</v>
+        <v>8569031.275369719</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>148.1423250044394</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536693</v>
+        <v>311.7236160152338</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
         <v>280.7771218515423</v>
@@ -1433,7 +1433,7 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
         <v>120.2716844800353</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433872</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124556</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128494</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>335.7587050448881</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>275.9723987444505</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>334.9552334536693</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>206.3692310989815</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958331</v>
+        <v>62.21262516958333</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V14" t="n">
         <v>280.7771218515424</v>
@@ -1768,22 +1768,22 @@
         <v>120.2716844800353</v>
       </c>
       <c r="D16" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797667</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433874</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572828</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124557</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128494</v>
@@ -1819,7 +1819,7 @@
         <v>172.5738126575767</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V16" t="n">
         <v>205.1625067052355</v>
@@ -1828,7 +1828,7 @@
         <v>239.5478617179985</v>
       </c>
       <c r="X16" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y16" t="n">
         <v>171.6095167335023</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>314.5096953211452</v>
+        <v>314.5096953211453</v>
       </c>
       <c r="C17" t="n">
-        <v>297.0487454286722</v>
+        <v>297.0487454286723</v>
       </c>
       <c r="D17" t="n">
-        <v>286.4588952783476</v>
+        <v>286.4588952783477</v>
       </c>
       <c r="E17" t="n">
-        <v>313.7062237299264</v>
+        <v>243.9557686402697</v>
       </c>
       <c r="F17" t="n">
-        <v>338.6518993993761</v>
+        <v>338.6518993993762</v>
       </c>
       <c r="G17" t="n">
-        <v>342.6975793111181</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>226.3836180449852</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.96361544584049</v>
+        <v>40.96361544584059</v>
       </c>
       <c r="T17" t="n">
-        <v>135.6938237972848</v>
+        <v>135.6938237972849</v>
       </c>
       <c r="U17" t="n">
-        <v>182.7710256165666</v>
+        <v>182.7710256165667</v>
       </c>
       <c r="V17" t="n">
-        <v>259.5281121277995</v>
+        <v>259.5281121277997</v>
       </c>
       <c r="W17" t="n">
-        <v>281.0168223750777</v>
+        <v>281.0168223750778</v>
       </c>
       <c r="X17" t="n">
-        <v>301.5069543361337</v>
+        <v>301.5069543361338</v>
       </c>
       <c r="Y17" t="n">
-        <v>131.9493759579295</v>
+        <v>318.0137923137183</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.607833839602</v>
+        <v>111.6078338396021</v>
       </c>
       <c r="C19" t="n">
-        <v>99.02267475629249</v>
+        <v>99.02267475629259</v>
       </c>
       <c r="D19" t="n">
-        <v>80.39132667587701</v>
+        <v>80.39132667587711</v>
       </c>
       <c r="E19" t="n">
-        <v>78.20981630423383</v>
+        <v>78.20981630423393</v>
       </c>
       <c r="F19" t="n">
-        <v>77.1969016805959</v>
+        <v>77.196901680596</v>
       </c>
       <c r="G19" t="n">
-        <v>97.80166191669288</v>
+        <v>97.80166191669298</v>
       </c>
       <c r="H19" t="n">
-        <v>76.53086857198544</v>
+        <v>76.53086857198554</v>
       </c>
       <c r="I19" t="n">
-        <v>28.12827406750275</v>
+        <v>28.12827406750285</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.70800632771198</v>
+        <v>20.70800632771208</v>
       </c>
       <c r="S19" t="n">
-        <v>121.5448789891065</v>
+        <v>121.5448789891066</v>
       </c>
       <c r="T19" t="n">
-        <v>151.3248029338338</v>
+        <v>151.324802933834</v>
       </c>
       <c r="U19" t="n">
-        <v>217.9876918632775</v>
+        <v>217.9876918632776</v>
       </c>
       <c r="V19" t="n">
-        <v>183.9134969814926</v>
+        <v>183.9134969814928</v>
       </c>
       <c r="W19" t="n">
-        <v>218.2988519942556</v>
+        <v>218.2988519942558</v>
       </c>
       <c r="X19" t="n">
-        <v>157.4855090467018</v>
+        <v>157.4855090467019</v>
       </c>
       <c r="Y19" t="n">
-        <v>150.3605070097594</v>
+        <v>150.3605070097595</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>314.5096953211452</v>
+        <v>314.5096953211453</v>
       </c>
       <c r="C20" t="n">
-        <v>297.0487454286722</v>
+        <v>297.0487454286723</v>
       </c>
       <c r="D20" t="n">
-        <v>286.4588952783476</v>
+        <v>286.4588952783477</v>
       </c>
       <c r="E20" t="n">
-        <v>313.7062237299264</v>
+        <v>313.7062237299265</v>
       </c>
       <c r="F20" t="n">
-        <v>338.6518993993761</v>
+        <v>152.5874830435865</v>
       </c>
       <c r="G20" t="n">
-        <v>342.6975793111181</v>
+        <v>342.6975793111182</v>
       </c>
       <c r="H20" t="n">
-        <v>226.3836180449851</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.96361544584049</v>
+        <v>40.9636154458406</v>
       </c>
       <c r="T20" t="n">
-        <v>41.25958171022864</v>
+        <v>135.6938237972849</v>
       </c>
       <c r="U20" t="n">
-        <v>182.7710256165666</v>
+        <v>182.7710256165667</v>
       </c>
       <c r="V20" t="n">
-        <v>259.5281121277995</v>
+        <v>259.5281121277997</v>
       </c>
       <c r="W20" t="n">
-        <v>281.0168223750777</v>
+        <v>281.0168223750778</v>
       </c>
       <c r="X20" t="n">
-        <v>301.5069543361337</v>
+        <v>301.5069543361338</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>318.0137923137183</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>111.607833839602</v>
+        <v>111.6078338396021</v>
       </c>
       <c r="C22" t="n">
-        <v>99.02267475629249</v>
+        <v>99.02267475629259</v>
       </c>
       <c r="D22" t="n">
-        <v>80.39132667587701</v>
+        <v>80.39132667587711</v>
       </c>
       <c r="E22" t="n">
-        <v>78.20981630423383</v>
+        <v>78.20981630423393</v>
       </c>
       <c r="F22" t="n">
-        <v>77.1969016805959</v>
+        <v>77.196901680596</v>
       </c>
       <c r="G22" t="n">
-        <v>97.80166191669288</v>
+        <v>97.80166191669298</v>
       </c>
       <c r="H22" t="n">
-        <v>76.53086857198544</v>
+        <v>76.53086857198554</v>
       </c>
       <c r="I22" t="n">
-        <v>28.12827406750275</v>
+        <v>28.12827406750286</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.70800632771198</v>
+        <v>20.7080063277121</v>
       </c>
       <c r="S22" t="n">
-        <v>121.5448789891065</v>
+        <v>121.5448789891066</v>
       </c>
       <c r="T22" t="n">
-        <v>151.3248029338338</v>
+        <v>151.324802933834</v>
       </c>
       <c r="U22" t="n">
-        <v>217.9876918632775</v>
+        <v>217.9876918632776</v>
       </c>
       <c r="V22" t="n">
-        <v>183.9134969814926</v>
+        <v>183.9134969814928</v>
       </c>
       <c r="W22" t="n">
-        <v>218.2988519942556</v>
+        <v>218.2988519942558</v>
       </c>
       <c r="X22" t="n">
-        <v>157.4855090467018</v>
+        <v>157.4855090467019</v>
       </c>
       <c r="Y22" t="n">
-        <v>150.3605070097594</v>
+        <v>150.3605070097595</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>314.5096953211452</v>
+        <v>314.5096953211453</v>
       </c>
       <c r="C23" t="n">
-        <v>297.0487454286722</v>
+        <v>297.0487454286723</v>
       </c>
       <c r="D23" t="n">
-        <v>286.4588952783476</v>
+        <v>286.4588952783477</v>
       </c>
       <c r="E23" t="n">
-        <v>313.7062237299264</v>
+        <v>313.7062237299265</v>
       </c>
       <c r="F23" t="n">
-        <v>338.6518993993761</v>
+        <v>338.6518993993762</v>
       </c>
       <c r="G23" t="n">
-        <v>342.6975793111181</v>
+        <v>342.6975793111182</v>
       </c>
       <c r="H23" t="n">
-        <v>226.3836180449851</v>
+        <v>226.3836180449852</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.96361544584049</v>
+        <v>40.9636154458406</v>
       </c>
       <c r="T23" t="n">
-        <v>135.6938237972848</v>
+        <v>135.6938237972849</v>
       </c>
       <c r="U23" t="n">
-        <v>182.7710256165666</v>
+        <v>182.7710256165667</v>
       </c>
       <c r="V23" t="n">
-        <v>259.5281121277995</v>
+        <v>259.5281121277997</v>
       </c>
       <c r="W23" t="n">
-        <v>281.0168223750777</v>
+        <v>281.0168223750778</v>
       </c>
       <c r="X23" t="n">
-        <v>301.5069543361337</v>
+        <v>301.5069543361338</v>
       </c>
       <c r="Y23" t="n">
-        <v>318.0137923137182</v>
+        <v>318.0137923137183</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.607833839602</v>
+        <v>111.6078338396021</v>
       </c>
       <c r="C25" t="n">
-        <v>99.02267475629249</v>
+        <v>99.02267475629259</v>
       </c>
       <c r="D25" t="n">
-        <v>80.39132667587701</v>
+        <v>80.39132667587711</v>
       </c>
       <c r="E25" t="n">
-        <v>78.20981630423383</v>
+        <v>78.20981630423393</v>
       </c>
       <c r="F25" t="n">
-        <v>77.1969016805959</v>
+        <v>77.196901680596</v>
       </c>
       <c r="G25" t="n">
-        <v>97.80166191669288</v>
+        <v>97.80166191669298</v>
       </c>
       <c r="H25" t="n">
-        <v>76.53086857198544</v>
+        <v>76.53086857198554</v>
       </c>
       <c r="I25" t="n">
-        <v>28.12827406750275</v>
+        <v>28.12827406750286</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.70800632771198</v>
+        <v>20.7080063277121</v>
       </c>
       <c r="S25" t="n">
-        <v>121.5448789891065</v>
+        <v>121.5448789891066</v>
       </c>
       <c r="T25" t="n">
-        <v>151.3248029338338</v>
+        <v>151.324802933834</v>
       </c>
       <c r="U25" t="n">
-        <v>217.9876918632775</v>
+        <v>217.9876918632776</v>
       </c>
       <c r="V25" t="n">
-        <v>183.9134969814926</v>
+        <v>183.9134969814928</v>
       </c>
       <c r="W25" t="n">
-        <v>218.2988519942556</v>
+        <v>218.2988519942558</v>
       </c>
       <c r="X25" t="n">
-        <v>157.4855090467018</v>
+        <v>157.4855090467019</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.3605070097594</v>
+        <v>150.3605070097595</v>
       </c>
     </row>
     <row r="26">
@@ -2731,7 +2731,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
         <v>204.0200353403094</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247658</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2953,22 +2953,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572817</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124547</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145655</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3013,7 +3013,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
         <v>171.6095167335022</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3266,7 +3266,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
         <v>256.998321392578</v>
@@ -3275,13 +3275,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052288</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E37" t="n">
-        <v>99.70874824091555</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482629</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092327</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333694</v>
+        <v>134.2912433677308</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239898</v>
@@ -3512,7 +3512,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307972</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383229</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052283</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>93.137691054501</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846416</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482624</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092322</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621577</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>135.6235431859976</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3743,16 +3743,16 @@
         <v>293.3142984377524</v>
       </c>
       <c r="D41" t="n">
-        <v>282.7244482874278</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>309.9717767390066</v>
+        <v>232.5304484985362</v>
       </c>
       <c r="F41" t="n">
         <v>334.9174524084563</v>
       </c>
       <c r="G41" t="n">
-        <v>327.022479679234</v>
+        <v>338.9631323201983</v>
       </c>
       <c r="H41" t="n">
         <v>222.6491710540653</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>37.2291684549207</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>131.959376806365</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>179.0365786256468</v>
       </c>
       <c r="V41" t="n">
-        <v>255.7936651368797</v>
+        <v>255.7936651368798</v>
       </c>
       <c r="W41" t="n">
         <v>277.2823753841578</v>
@@ -3806,7 +3806,7 @@
         <v>297.7725073452139</v>
       </c>
       <c r="Y41" t="n">
-        <v>314.2793453227984</v>
+        <v>314.2793453227985</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>107.8733868486821</v>
       </c>
       <c r="C43" t="n">
-        <v>95.28822776537265</v>
+        <v>95.28822776537268</v>
       </c>
       <c r="D43" t="n">
-        <v>76.65687968495718</v>
+        <v>76.6568796849572</v>
       </c>
       <c r="E43" t="n">
-        <v>74.47536931331399</v>
+        <v>74.47536931331402</v>
       </c>
       <c r="F43" t="n">
-        <v>73.46245468967606</v>
+        <v>73.46245468967609</v>
       </c>
       <c r="G43" t="n">
-        <v>94.06721492577304</v>
+        <v>94.06721492577307</v>
       </c>
       <c r="H43" t="n">
-        <v>72.7964215810656</v>
+        <v>72.79642158106563</v>
       </c>
       <c r="I43" t="n">
-        <v>24.39382707658292</v>
+        <v>24.39382707658296</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.97355933679215</v>
+        <v>16.97355933679219</v>
       </c>
       <c r="S43" t="n">
         <v>117.8104319981867</v>
       </c>
       <c r="T43" t="n">
-        <v>179.0030121784557</v>
+        <v>179.0030121784546</v>
       </c>
       <c r="U43" t="n">
         <v>214.2532448723577</v>
@@ -3983,7 +3983,7 @@
         <v>282.7244482874278</v>
       </c>
       <c r="E44" t="n">
-        <v>309.9717767390066</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>334.9174524084563</v>
@@ -3992,7 +3992,7 @@
         <v>338.9631323201983</v>
       </c>
       <c r="H44" t="n">
-        <v>222.6491710540653</v>
+        <v>172.455171265174</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.22916845492068</v>
+        <v>37.22916845492067</v>
       </c>
       <c r="T44" t="n">
         <v>131.959376806365</v>
@@ -4034,16 +4034,16 @@
         <v>179.0365786256468</v>
       </c>
       <c r="V44" t="n">
-        <v>172.9102639931416</v>
+        <v>255.7936651368797</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>277.2823753841578</v>
       </c>
       <c r="X44" t="n">
         <v>297.7725073452139</v>
       </c>
       <c r="Y44" t="n">
-        <v>314.2793453227985</v>
+        <v>314.2793453227984</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>107.8733868486821</v>
       </c>
       <c r="C46" t="n">
-        <v>95.28822776537268</v>
+        <v>95.28822776537265</v>
       </c>
       <c r="D46" t="n">
-        <v>76.6568796849572</v>
+        <v>76.65687968495718</v>
       </c>
       <c r="E46" t="n">
-        <v>105.8880255488553</v>
+        <v>74.47536931331399</v>
       </c>
       <c r="F46" t="n">
-        <v>73.46245468967609</v>
+        <v>73.46245468967606</v>
       </c>
       <c r="G46" t="n">
-        <v>94.06721492577307</v>
+        <v>94.06721492577304</v>
       </c>
       <c r="H46" t="n">
-        <v>72.79642158106563</v>
+        <v>72.7964215810656</v>
       </c>
       <c r="I46" t="n">
-        <v>24.39382707658294</v>
+        <v>24.39382707658293</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.97355933679218</v>
+        <v>48.38621557233343</v>
       </c>
       <c r="S46" t="n">
         <v>117.8104319981867</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1846.598570358352</v>
+        <v>1627.38364477722</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.959858232656</v>
+        <v>1305.870760784881</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573978</v>
+        <v>995.0546951262043</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>680.1823557168773</v>
       </c>
       <c r="F11" t="n">
-        <v>684.268901082273</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G11" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218343</v>
@@ -5039,22 +5039,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912085</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296687</v>
@@ -5072,19 +5072,19 @@
         <v>3104.236671416635</v>
       </c>
       <c r="U11" t="n">
-        <v>3104.236671416635</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V11" t="n">
-        <v>2820.623417021138</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W11" t="n">
-        <v>2515.304394699097</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X11" t="n">
-        <v>2189.28826938609</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="Y11" t="n">
-        <v>1846.598570358352</v>
+        <v>1966.533851893268</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C13" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770412</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998335</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657646</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328084</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337111</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5218,7 +5218,7 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R13" t="n">
         <v>2256.956805813346</v>
@@ -5230,19 +5230,19 @@
         <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V13" t="n">
-        <v>1489.51548292175</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874611</v>
+        <v>893.6650816874604</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1665.976477910008</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C14" t="n">
-        <v>1344.46359391767</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="D14" t="n">
-        <v>1344.46359391767</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E14" t="n">
-        <v>1006.124974267499</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="F14" t="n">
-        <v>642.5887024259644</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G14" t="n">
-        <v>274.9658852190341</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218343</v>
@@ -5288,16 +5288,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5306,22 +5306,22 @@
         <v>3262.76478608434</v>
       </c>
       <c r="T14" t="n">
-        <v>3262.76478608434</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
-        <v>3262.76478608434</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V14" t="n">
-        <v>2979.151531688843</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W14" t="n">
-        <v>2673.832509366802</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X14" t="n">
-        <v>2347.816384053795</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y14" t="n">
-        <v>2005.126685026057</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="15">
@@ -5425,7 +5425,7 @@
         <v>335.4089181770415</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998338</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
         <v>116.3881606657648</v>
@@ -5434,13 +5434,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1661.020543853841</v>
+        <v>1473.076688949003</v>
       </c>
       <c r="C17" t="n">
-        <v>1360.971306047101</v>
+        <v>1173.027451142263</v>
       </c>
       <c r="D17" t="n">
-        <v>1071.618886574023</v>
+        <v>883.6750316691846</v>
       </c>
       <c r="E17" t="n">
-        <v>754.7439131094504</v>
+        <v>637.2550633456799</v>
       </c>
       <c r="F17" t="n">
-        <v>412.6712874535149</v>
+        <v>295.1824376897442</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>295.1824376897442</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218343</v>
@@ -5513,52 +5513,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3284.228432269939</v>
+        <v>3284.228432269938</v>
       </c>
       <c r="T17" t="n">
-        <v>3147.163963787833</v>
+        <v>3147.163963787832</v>
       </c>
       <c r="U17" t="n">
-        <v>2962.546766195342</v>
+        <v>2962.546766195341</v>
       </c>
       <c r="V17" t="n">
-        <v>2700.397157985443</v>
+        <v>2700.397157985442</v>
       </c>
       <c r="W17" t="n">
-        <v>2416.541781849001</v>
+        <v>2416.541781849</v>
       </c>
       <c r="X17" t="n">
         <v>2111.989302721593</v>
       </c>
       <c r="Y17" t="n">
-        <v>1978.70710478429</v>
+        <v>1790.763249879453</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>609.220726506103</v>
+        <v>609.2207265061037</v>
       </c>
       <c r="C19" t="n">
-        <v>509.1978227118681</v>
+        <v>509.1978227118687</v>
       </c>
       <c r="D19" t="n">
-        <v>427.9944624332045</v>
+        <v>427.9944624332049</v>
       </c>
       <c r="E19" t="n">
-        <v>348.9946479844834</v>
+        <v>348.9946479844838</v>
       </c>
       <c r="F19" t="n">
-        <v>271.0179796202451</v>
+        <v>271.0179796202454</v>
       </c>
       <c r="G19" t="n">
-        <v>172.2284221286362</v>
+        <v>172.2284221286363</v>
       </c>
       <c r="H19" t="n">
-        <v>94.92451448016601</v>
+        <v>94.92451448016611</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5677,46 +5677,46 @@
         <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>660.8064733261654</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>1004.963518925714</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.371895631577</v>
+        <v>1346.371895631579</v>
       </c>
       <c r="O19" t="n">
-        <v>1645.701494551991</v>
+        <v>1645.701494551992</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.30899498565</v>
+        <v>1878.308994985652</v>
       </c>
       <c r="Q19" t="n">
-        <v>1955.919291138165</v>
+        <v>1955.919291138167</v>
       </c>
       <c r="R19" t="n">
-        <v>1935.002113029365</v>
+        <v>1935.002113029367</v>
       </c>
       <c r="S19" t="n">
-        <v>1812.229507989863</v>
+        <v>1812.229507989865</v>
       </c>
       <c r="T19" t="n">
-        <v>1659.376171693061</v>
+        <v>1659.376171693063</v>
       </c>
       <c r="U19" t="n">
-        <v>1439.186583952377</v>
+        <v>1439.186583952379</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.415374880162</v>
+        <v>1253.415374880164</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.911483976874</v>
+        <v>1032.911483976875</v>
       </c>
       <c r="X19" t="n">
-        <v>873.8352122125286</v>
+        <v>873.8352122125295</v>
       </c>
       <c r="Y19" t="n">
-        <v>721.9559122026707</v>
+        <v>721.9559122026715</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1889.690865111402</v>
+        <v>1473.076688949003</v>
       </c>
       <c r="C20" t="n">
-        <v>1589.641627304663</v>
+        <v>1173.027451142263</v>
       </c>
       <c r="D20" t="n">
-        <v>1300.289207831584</v>
+        <v>883.6750316691848</v>
       </c>
       <c r="E20" t="n">
-        <v>983.4142343670119</v>
+        <v>566.8000582046125</v>
       </c>
       <c r="F20" t="n">
-        <v>641.3416087110763</v>
+        <v>412.671287453515</v>
       </c>
       <c r="G20" t="n">
-        <v>295.1824376897441</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5750,22 +5750,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296687</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3284.228432269939</v>
+        <v>3284.228432269938</v>
       </c>
       <c r="T20" t="n">
-        <v>3242.552087108092</v>
+        <v>3147.163963787832</v>
       </c>
       <c r="U20" t="n">
-        <v>3057.9348895156</v>
+        <v>2962.546766195342</v>
       </c>
       <c r="V20" t="n">
-        <v>2795.785281305702</v>
+        <v>2700.397157985443</v>
       </c>
       <c r="W20" t="n">
-        <v>2511.92990516926</v>
+        <v>2416.541781849</v>
       </c>
       <c r="X20" t="n">
-        <v>2207.377426041852</v>
+        <v>2111.989302721593</v>
       </c>
       <c r="Y20" t="n">
-        <v>2207.377426041852</v>
+        <v>1790.763249879453</v>
       </c>
     </row>
     <row r="21">
@@ -5823,19 +5823,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>609.220726506103</v>
+        <v>609.2207265061037</v>
       </c>
       <c r="C22" t="n">
-        <v>509.1978227118681</v>
+        <v>509.1978227118687</v>
       </c>
       <c r="D22" t="n">
-        <v>427.9944624332045</v>
+        <v>427.9944624332049</v>
       </c>
       <c r="E22" t="n">
-        <v>348.9946479844834</v>
+        <v>348.9946479844838</v>
       </c>
       <c r="F22" t="n">
-        <v>271.0179796202451</v>
+        <v>271.0179796202455</v>
       </c>
       <c r="G22" t="n">
-        <v>172.2284221286362</v>
+        <v>172.2284221286364</v>
       </c>
       <c r="H22" t="n">
-        <v>94.92451448016601</v>
+        <v>94.92451448016612</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
@@ -5911,49 +5911,49 @@
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.371895631577</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1645.701494551991</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.30899498565</v>
+        <v>1878.308994985652</v>
       </c>
       <c r="Q22" t="n">
-        <v>1955.919291138165</v>
+        <v>1955.919291138167</v>
       </c>
       <c r="R22" t="n">
-        <v>1935.002113029365</v>
+        <v>1935.002113029367</v>
       </c>
       <c r="S22" t="n">
-        <v>1812.229507989863</v>
+        <v>1812.229507989865</v>
       </c>
       <c r="T22" t="n">
-        <v>1659.376171693061</v>
+        <v>1659.376171693063</v>
       </c>
       <c r="U22" t="n">
-        <v>1439.186583952377</v>
+        <v>1439.186583952379</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.415374880162</v>
+        <v>1253.415374880164</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.911483976874</v>
+        <v>1032.911483976875</v>
       </c>
       <c r="X22" t="n">
-        <v>873.8352122125286</v>
+        <v>873.8352122125295</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.9559122026707</v>
+        <v>721.9559122026715</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1898.193195237164</v>
+        <v>1898.193195237165</v>
       </c>
       <c r="C23" t="n">
         <v>1598.143957430425</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.791537957346</v>
+        <v>1308.791537957347</v>
       </c>
       <c r="E23" t="n">
-        <v>991.9165644927739</v>
+        <v>991.9165644927743</v>
       </c>
       <c r="F23" t="n">
-        <v>649.8439388368383</v>
+        <v>649.8439388368388</v>
       </c>
       <c r="G23" t="n">
-        <v>303.6847678155074</v>
+        <v>303.6847678155075</v>
       </c>
       <c r="H23" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794668</v>
       </c>
       <c r="I23" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794668</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7358821967046</v>
+        <v>263.8935775169721</v>
       </c>
       <c r="K23" t="n">
-        <v>619.5552558865511</v>
+        <v>597.7129512068184</v>
       </c>
       <c r="L23" t="n">
-        <v>1070.58946913496</v>
+        <v>1048.747164455227</v>
       </c>
       <c r="M23" t="n">
-        <v>1998.89324528955</v>
+        <v>1582.279069127151</v>
       </c>
       <c r="N23" t="n">
-        <v>2545.672062348332</v>
+        <v>2168.679882898216</v>
       </c>
       <c r="O23" t="n">
-        <v>3048.644533227669</v>
+        <v>3048.644533227671</v>
       </c>
       <c r="P23" t="n">
-        <v>3443.418899584847</v>
+        <v>3443.418899584849</v>
       </c>
       <c r="Q23" t="n">
-        <v>3691.705261340529</v>
+        <v>3691.705261340531</v>
       </c>
       <c r="R23" t="n">
-        <v>3750.722327897332</v>
+        <v>3750.722327897334</v>
       </c>
       <c r="S23" t="n">
-        <v>3709.344938558099</v>
+        <v>3709.344938558101</v>
       </c>
       <c r="T23" t="n">
-        <v>3572.280470075993</v>
+        <v>3572.280470075994</v>
       </c>
       <c r="U23" t="n">
-        <v>3387.663272483502</v>
+        <v>3387.663272483503</v>
       </c>
       <c r="V23" t="n">
-        <v>3125.513664273603</v>
+        <v>3125.513664273604</v>
       </c>
       <c r="W23" t="n">
-        <v>2841.658288137161</v>
+        <v>2841.658288137162</v>
       </c>
       <c r="X23" t="n">
         <v>2537.105809009754</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.879756167614</v>
+        <v>2215.879756167615</v>
       </c>
     </row>
     <row r="24">
@@ -6051,31 +6051,31 @@
         <v>626.6587456644936</v>
       </c>
       <c r="E24" t="n">
-        <v>467.421290659038</v>
+        <v>467.4212906590382</v>
       </c>
       <c r="F24" t="n">
-        <v>320.8867326859231</v>
+        <v>320.8867326859232</v>
       </c>
       <c r="G24" t="n">
-        <v>184.5236325185411</v>
+        <v>184.5236325185413</v>
       </c>
       <c r="H24" t="n">
-        <v>94.02173815640867</v>
+        <v>94.02173815640876</v>
       </c>
       <c r="I24" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794668</v>
       </c>
       <c r="J24" t="n">
-        <v>168.691716048564</v>
+        <v>168.6917160485644</v>
       </c>
       <c r="K24" t="n">
-        <v>406.9559150289111</v>
+        <v>406.9559150289115</v>
       </c>
       <c r="L24" t="n">
-        <v>773.6540753415766</v>
+        <v>773.6540753415768</v>
       </c>
       <c r="M24" t="n">
-        <v>1220.930400563892</v>
+        <v>1220.930400563893</v>
       </c>
       <c r="N24" t="n">
         <v>1694.453444118347</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.7230566318663</v>
+        <v>617.7230566318669</v>
       </c>
       <c r="C25" t="n">
-        <v>517.7001528376314</v>
+        <v>517.700152837632</v>
       </c>
       <c r="D25" t="n">
-        <v>436.4967925589677</v>
+        <v>436.4967925589682</v>
       </c>
       <c r="E25" t="n">
-        <v>357.4969781102467</v>
+        <v>357.4969781102471</v>
       </c>
       <c r="F25" t="n">
-        <v>279.5203097460084</v>
+        <v>279.5203097460087</v>
       </c>
       <c r="G25" t="n">
-        <v>180.7307522543994</v>
+        <v>180.7307522543996</v>
       </c>
       <c r="H25" t="n">
-        <v>103.4268446059292</v>
+        <v>103.4268446059294</v>
       </c>
       <c r="I25" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794668</v>
       </c>
       <c r="J25" t="n">
-        <v>148.7618220545544</v>
+        <v>120.1370790048822</v>
       </c>
       <c r="K25" t="n">
-        <v>352.7490050034308</v>
+        <v>324.1242619537585</v>
       </c>
       <c r="L25" t="n">
-        <v>669.3088034519269</v>
+        <v>640.6840604022547</v>
       </c>
       <c r="M25" t="n">
-        <v>1013.465849051476</v>
+        <v>1013.465849051478</v>
       </c>
       <c r="N25" t="n">
-        <v>1354.874225757341</v>
+        <v>1354.874225757343</v>
       </c>
       <c r="O25" t="n">
-        <v>1654.203824677754</v>
+        <v>1654.203824677756</v>
       </c>
       <c r="P25" t="n">
-        <v>1886.811325111413</v>
+        <v>1886.811325111415</v>
       </c>
       <c r="Q25" t="n">
-        <v>1964.421621263928</v>
+        <v>1964.42162126393</v>
       </c>
       <c r="R25" t="n">
-        <v>1943.504443155128</v>
+        <v>1943.50444315513</v>
       </c>
       <c r="S25" t="n">
-        <v>1820.731838115627</v>
+        <v>1820.731838115628</v>
       </c>
       <c r="T25" t="n">
-        <v>1667.878501818825</v>
+        <v>1667.878501818826</v>
       </c>
       <c r="U25" t="n">
-        <v>1447.68891407814</v>
+        <v>1447.688914078142</v>
       </c>
       <c r="V25" t="n">
-        <v>1261.917705005926</v>
+        <v>1261.917705005927</v>
       </c>
       <c r="W25" t="n">
-        <v>1041.413814102637</v>
+        <v>1041.413814102638</v>
       </c>
       <c r="X25" t="n">
-        <v>882.337542338292</v>
+        <v>882.3375423382929</v>
       </c>
       <c r="Y25" t="n">
-        <v>730.4582423284339</v>
+        <v>730.4582423284347</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
         <v>1711.594658697161</v>
@@ -6212,7 +6212,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398486</v>
@@ -6224,31 +6224,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486248</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.59600554503</v>
+        <v>2135.190356524677</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424367</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094414</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309626</v>
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
@@ -6309,7 +6309,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913838</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6382,13 +6382,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350172</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>393.2994530991692</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>727.1188267890157</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L29" t="n">
-        <v>1178.153040037424</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>1711.684944709349</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N29" t="n">
-        <v>2258.463761768131</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O29" t="n">
-        <v>2761.436232647468</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6516,73 +6516,73 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U30" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y30" t="n">
         <v>1124.393991965682</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E31" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6640,22 +6640,22 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467802</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>822.917933464227</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1273.952146712636</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.411539465894</v>
+        <v>1807.48405138456</v>
       </c>
       <c r="N32" t="n">
-        <v>2135.190356524677</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O32" t="n">
-        <v>3015.155006854131</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P32" t="n">
-        <v>3728.510094301078</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415472</v>
@@ -6853,19 +6853,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6920,22 +6920,22 @@
         <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464978</v>
       </c>
       <c r="F35" t="n">
         <v>581.8252978307337</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810557</v>
@@ -6953,25 +6953,25 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049857</v>
@@ -7011,16 +7011,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>552.4050786964423</v>
+        <v>599.6022649647789</v>
       </c>
       <c r="C37" t="n">
-        <v>482.1403303423788</v>
+        <v>430.666082036872</v>
       </c>
       <c r="D37" t="n">
-        <v>332.023690930043</v>
+        <v>379.2208771983798</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159869</v>
+        <v>329.9792181898301</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1744.449641246691</v>
+        <v>1791.646827515027</v>
       </c>
       <c r="T37" t="n">
-        <v>1621.35446039006</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U37" t="n">
-        <v>1430.923028089547</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V37" t="n">
-        <v>1176.23853988366</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W37" t="n">
-        <v>886.8213698466993</v>
+        <v>934.0185561150356</v>
       </c>
       <c r="X37" t="n">
-        <v>757.5032535225254</v>
+        <v>804.7004397908618</v>
       </c>
       <c r="Y37" t="n">
-        <v>635.3821089528386</v>
+        <v>682.5792952211751</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,55 +7157,55 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746127</v>
@@ -7214,7 +7214,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7269,34 +7269,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>795.5993767202773</v>
+        <v>444.8926667912272</v>
       </c>
       <c r="C40" t="n">
-        <v>725.3346283662138</v>
+        <v>374.6279184371637</v>
       </c>
       <c r="D40" t="n">
-        <v>673.8894235277214</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E40" t="n">
-        <v>525.9763299453283</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F40" t="n">
-        <v>379.0863824474179</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1790.301070122839</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T40" t="n">
-        <v>1667.205889266208</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U40" t="n">
-        <v>1476.774456965695</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V40" t="n">
-        <v>1320.761403333652</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>1130.015667870534</v>
+        <v>877.9803925153274</v>
       </c>
       <c r="X40" t="n">
-        <v>1000.69755154636</v>
+        <v>748.6622761911535</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.5764069766736</v>
+        <v>527.8696970476234</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1854.996587751318</v>
+        <v>1503.254038370577</v>
       </c>
       <c r="C41" t="n">
-        <v>1558.719518622275</v>
+        <v>1206.976969241533</v>
       </c>
       <c r="D41" t="n">
-        <v>1273.139267826893</v>
+        <v>1206.976969241533</v>
       </c>
       <c r="E41" t="n">
-        <v>960.0364630400177</v>
+        <v>972.0977283339208</v>
       </c>
       <c r="F41" t="n">
-        <v>621.736006061779</v>
+        <v>633.7972713556821</v>
       </c>
       <c r="G41" t="n">
         <v>291.4102690120474</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
@@ -7436,25 +7436,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3288.000600947635</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3154.708301143226</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2973.863272228431</v>
       </c>
       <c r="V41" t="n">
-        <v>3067.22838207697</v>
+        <v>2715.485832696229</v>
       </c>
       <c r="W41" t="n">
-        <v>2787.145174618225</v>
+        <v>2435.402625237484</v>
       </c>
       <c r="X41" t="n">
-        <v>2486.364864168514</v>
+        <v>2134.622314787773</v>
       </c>
       <c r="Y41" t="n">
-        <v>2168.910980004071</v>
+        <v>1817.16843062333</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064539</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.8155457622254</v>
+        <v>582.8155457622256</v>
       </c>
       <c r="C43" t="n">
-        <v>486.5648106456873</v>
+        <v>486.5648106456875</v>
       </c>
       <c r="D43" t="n">
-        <v>409.1336190447204</v>
+        <v>409.1336190447206</v>
       </c>
       <c r="E43" t="n">
-        <v>333.9059732736962</v>
+        <v>333.9059732736963</v>
       </c>
       <c r="F43" t="n">
-        <v>259.7014735871547</v>
+        <v>259.7014735871548</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6840847732425</v>
+        <v>164.6840847732426</v>
       </c>
       <c r="H43" t="n">
-        <v>91.15234580246921</v>
+        <v>91.15234580246924</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,16 +7588,16 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
         <v>1910.149538657389</v>
       </c>
       <c r="S43" t="n">
-        <v>1791.149102295585</v>
+        <v>1791.149102295584</v>
       </c>
       <c r="T43" t="n">
-        <v>1610.337978883003</v>
+        <v>1610.337978883004</v>
       </c>
       <c r="U43" t="n">
         <v>1393.920559820016</v>
@@ -7606,13 +7606,13 @@
         <v>1211.921519425498</v>
       </c>
       <c r="W43" t="n">
-        <v>995.1897971999058</v>
+        <v>995.1897971999064</v>
       </c>
       <c r="X43" t="n">
-        <v>839.8856941132574</v>
+        <v>839.8856941132578</v>
       </c>
       <c r="Y43" t="n">
-        <v>691.7785627810962</v>
+        <v>691.7785627810965</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1867.057853045221</v>
+        <v>1503.254038370577</v>
       </c>
       <c r="C44" t="n">
-        <v>1570.780783916178</v>
+        <v>1206.976969241534</v>
       </c>
       <c r="D44" t="n">
-        <v>1285.200533120796</v>
+        <v>921.3967184461527</v>
       </c>
       <c r="E44" t="n">
-        <v>972.0977283339207</v>
+        <v>921.3967184461527</v>
       </c>
       <c r="F44" t="n">
-        <v>633.7972713556821</v>
+        <v>583.096261467914</v>
       </c>
       <c r="G44" t="n">
-        <v>291.4102690120474</v>
+        <v>240.7092591242784</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7673,25 +7673,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3288.000600947636</v>
+        <v>3288.000600947635</v>
       </c>
       <c r="T44" t="n">
-        <v>3154.708301143227</v>
+        <v>3154.708301143226</v>
       </c>
       <c r="U44" t="n">
-        <v>2973.863272228432</v>
+        <v>2973.863272228431</v>
       </c>
       <c r="V44" t="n">
-        <v>2799.206439912127</v>
+        <v>2715.485832696229</v>
       </c>
       <c r="W44" t="n">
-        <v>2799.206439912127</v>
+        <v>2435.402625237484</v>
       </c>
       <c r="X44" t="n">
-        <v>2498.426129462417</v>
+        <v>2134.622314787773</v>
       </c>
       <c r="Y44" t="n">
-        <v>2180.972245297974</v>
+        <v>1817.16843062333</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,7 +7743,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>614.5455015557015</v>
+        <v>582.8155457622254</v>
       </c>
       <c r="C46" t="n">
-        <v>518.2947664391635</v>
+        <v>486.5648106456873</v>
       </c>
       <c r="D46" t="n">
-        <v>440.8635748381966</v>
+        <v>409.1336190447204</v>
       </c>
       <c r="E46" t="n">
-        <v>333.9059732736963</v>
+        <v>333.9059732736962</v>
       </c>
       <c r="F46" t="n">
-        <v>259.7014735871548</v>
+        <v>259.7014735871547</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6840847732426</v>
+        <v>164.6840847732425</v>
       </c>
       <c r="H46" t="n">
-        <v>91.15234580246924</v>
+        <v>91.15234580246921</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1910.149538657389</v>
+        <v>1878.419582863913</v>
       </c>
       <c r="S46" t="n">
-        <v>1791.149102295585</v>
+        <v>1759.419146502108</v>
       </c>
       <c r="T46" t="n">
-        <v>1642.06793467648</v>
+        <v>1610.337978883003</v>
       </c>
       <c r="U46" t="n">
-        <v>1425.650515613492</v>
+        <v>1393.920559820016</v>
       </c>
       <c r="V46" t="n">
-        <v>1243.651475218974</v>
+        <v>1211.921519425498</v>
       </c>
       <c r="W46" t="n">
-        <v>1026.919752993382</v>
+        <v>995.1897971999058</v>
       </c>
       <c r="X46" t="n">
-        <v>871.6156499067337</v>
+        <v>839.8856941132574</v>
       </c>
       <c r="Y46" t="n">
-        <v>723.5085185745725</v>
+        <v>691.7785627810962</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>161.2833466331808</v>
+        <v>161.283346633181</v>
       </c>
       <c r="K8" t="n">
-        <v>190.4708996772608</v>
+        <v>190.4708996772611</v>
       </c>
       <c r="L8" t="n">
-        <v>199.021486711493</v>
+        <v>199.0214867114934</v>
       </c>
       <c r="M8" t="n">
-        <v>189.4604205499962</v>
+        <v>189.4604205499966</v>
       </c>
       <c r="N8" t="n">
-        <v>187.8656757253949</v>
+        <v>187.8656757253953</v>
       </c>
       <c r="O8" t="n">
-        <v>190.8661912001297</v>
+        <v>190.8661912001301</v>
       </c>
       <c r="P8" t="n">
-        <v>197.7493741610374</v>
+        <v>197.7493741610378</v>
       </c>
       <c r="Q8" t="n">
-        <v>197.1608845168178</v>
+        <v>197.160884516818</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>115.0671825723701</v>
+        <v>115.0671825723702</v>
       </c>
       <c r="K9" t="n">
-        <v>117.723875248454</v>
+        <v>117.7238752484543</v>
       </c>
       <c r="L9" t="n">
-        <v>111.5038326888313</v>
+        <v>111.5038326888316</v>
       </c>
       <c r="M9" t="n">
-        <v>110.5673213586501</v>
+        <v>110.5673213586504</v>
       </c>
       <c r="N9" t="n">
-        <v>98.93952256809746</v>
+        <v>98.93952256809783</v>
       </c>
       <c r="O9" t="n">
-        <v>112.954571319552</v>
+        <v>112.9545713195523</v>
       </c>
       <c r="P9" t="n">
-        <v>110.1843514755397</v>
+        <v>110.18435147554</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.0787517137821</v>
+        <v>124.0787517137823</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>119.3562654747614</v>
+        <v>119.3562654747616</v>
       </c>
       <c r="M10" t="n">
-        <v>122.5532519960286</v>
+        <v>122.5532519960288</v>
       </c>
       <c r="N10" t="n">
-        <v>111.702314729057</v>
+        <v>111.7023147290572</v>
       </c>
       <c r="O10" t="n">
-        <v>123.6934388297868</v>
+        <v>123.693438829787</v>
       </c>
       <c r="P10" t="n">
-        <v>125.0956219182091</v>
+        <v>125.0956219182092</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>22.06293401993184</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,13 +9644,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>398.7594661441063</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>40.02221890129613</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>190.2350110279868</v>
       </c>
       <c r="P26" t="n">
-        <v>277.2206841544135</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5185911550046</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10121,19 +10121,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>287.0017854473926</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.633094239485217e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>221.2853655744102</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,19 +10358,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>21.74982042514679</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.7587050448881</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>170.1554301479757</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>23.2316174384354</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>42.32535640796452</v>
       </c>
       <c r="D14" t="n">
         <v>307.7079050020905</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>41.26339666974648</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23738,16 +23738,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>69.75045508965687</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>342.6975793111182</v>
       </c>
       <c r="H17" t="n">
-        <v>226.3836180449851</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>186.0644163557888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>186.0644163557897</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>226.3836180449852</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>94.43424208705613</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>318.0137923137182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.110223024625157e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25631,16 +25631,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>282.7244482874278</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>77.44132824047047</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>11.94065264096429</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.22916845492065</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>131.959376806365</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>179.0365786256468</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>309.9717767390066</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>50.19399978889128</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25922,10 +25922,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>82.88340114373815</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>277.2823753841578</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>800445.0369732968</v>
+        <v>800445.0369732969</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679943.6250238343</v>
+        <v>679943.6250238344</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>700663.534405456</v>
+        <v>700663.5344054558</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>744464.3983753456</v>
+        <v>744464.3983753459</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>755336.7107886326</v>
+        <v>755336.7107886327</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>755336.7107886326</v>
+        <v>755336.7107886327</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>704304.9936663019</v>
+        <v>704304.9936663018</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>704304.9936663019</v>
+        <v>704304.9936663018</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>716866.7963774089</v>
+        <v>716866.7963774084</v>
       </c>
       <c r="C2" t="n">
-        <v>716866.7963774084</v>
+        <v>716866.7963774087</v>
       </c>
       <c r="D2" t="n">
-        <v>716883.0141379917</v>
+        <v>716883.0141379915</v>
       </c>
       <c r="E2" t="n">
         <v>668964.6336536127</v>
       </c>
       <c r="F2" t="n">
-        <v>668964.633653613</v>
+        <v>668964.6336536129</v>
       </c>
       <c r="G2" t="n">
-        <v>689684.5430352341</v>
+        <v>689684.5430352347</v>
       </c>
       <c r="H2" t="n">
-        <v>689684.5430352351</v>
+        <v>689684.5430352336</v>
       </c>
       <c r="I2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="J2" t="n">
-        <v>718411.5486312485</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="K2" t="n">
         <v>718411.5486312483</v>
       </c>
       <c r="L2" t="n">
-        <v>718411.5486312484</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="M2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="N2" t="n">
-        <v>718411.5486312485</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="O2" t="n">
-        <v>693326.0022960806</v>
+        <v>693326.0022960802</v>
       </c>
       <c r="P2" t="n">
         <v>693326.0022960805</v>
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49603.99004265039</v>
+        <v>49603.99004264985</v>
       </c>
       <c r="E3" t="n">
-        <v>1114814.601112466</v>
+        <v>1114814.601112467</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16999.20777899426</v>
+        <v>16999.20777899419</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28261.85161716348</v>
+        <v>28261.8516171636</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.45238225415</v>
+        <v>40637.45238225408</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16999.20777899421</v>
+        <v>16999.20777899416</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927244</v>
+        <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,37 +26421,37 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>425002.211291626</v>
+        <v>425002.2112916262</v>
       </c>
       <c r="E4" t="n">
         <v>58825.50137861082</v>
       </c>
       <c r="F4" t="n">
-        <v>58825.50137861083</v>
+        <v>58825.5013786108</v>
       </c>
       <c r="G4" t="n">
-        <v>72234.15779441228</v>
+        <v>72234.1577944122</v>
       </c>
       <c r="H4" t="n">
-        <v>72234.15779441227</v>
+        <v>72234.15779441225</v>
       </c>
       <c r="I4" t="n">
-        <v>87358.26236286771</v>
+        <v>87358.26236286777</v>
       </c>
       <c r="J4" t="n">
-        <v>84858.15940173088</v>
+        <v>84858.15940173087</v>
       </c>
       <c r="K4" t="n">
-        <v>84858.1594017309</v>
+        <v>84858.15940173098</v>
       </c>
       <c r="L4" t="n">
-        <v>84858.15940173084</v>
+        <v>84858.15940173093</v>
       </c>
       <c r="M4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="N4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815718</v>
       </c>
       <c r="O4" t="n">
         <v>74600.57793586687</v>
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34890.26850253473</v>
+        <v>34890.26850253472</v>
       </c>
       <c r="E5" t="n">
         <v>78255.49332178176</v>
@@ -26482,16 +26482,16 @@
         <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>80041.8763202471</v>
+        <v>80041.87632024709</v>
       </c>
       <c r="H5" t="n">
-        <v>80041.8763202471</v>
+        <v>80041.87632024707</v>
       </c>
       <c r="I5" t="n">
-        <v>86503.64721582714</v>
+        <v>86503.64721582715</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26500,16 +26500,16 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>80355.82754432673</v>
+        <v>80355.82754432672</v>
       </c>
       <c r="P5" t="n">
-        <v>80355.82754432673</v>
+        <v>80355.82754432672</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>241589.9463815884</v>
+        <v>241585.5328037199</v>
       </c>
       <c r="C6" t="n">
-        <v>241589.9463815879</v>
+        <v>241585.53280372</v>
       </c>
       <c r="D6" t="n">
-        <v>207386.5443011806</v>
+        <v>207382.1770597713</v>
       </c>
       <c r="E6" t="n">
-        <v>-582930.9621592462</v>
+        <v>-583072.2390591828</v>
       </c>
       <c r="F6" t="n">
-        <v>531883.6389532204</v>
+        <v>531742.3620532842</v>
       </c>
       <c r="G6" t="n">
-        <v>520409.3011415806</v>
+        <v>520327.2239827354</v>
       </c>
       <c r="H6" t="n">
-        <v>537408.5089205758</v>
+        <v>537326.4317617287</v>
       </c>
       <c r="I6" t="n">
-        <v>516287.7874353899</v>
+        <v>516287.7874353896</v>
       </c>
       <c r="J6" t="n">
-        <v>503537.9951724574</v>
+        <v>503537.995172457</v>
       </c>
       <c r="K6" t="n">
         <v>544175.4475547113</v>
       </c>
       <c r="L6" t="n">
-        <v>527176.2397757173</v>
+        <v>527176.239775717</v>
       </c>
       <c r="M6" t="n">
-        <v>342760.8403441168</v>
+        <v>342760.8403441167</v>
       </c>
       <c r="N6" t="n">
-        <v>544928.9403368415</v>
+        <v>544928.9403368407</v>
       </c>
       <c r="O6" t="n">
-        <v>538369.5968158869</v>
+        <v>538297.9238263576</v>
       </c>
       <c r="P6" t="n">
-        <v>538369.5968158868</v>
+        <v>538297.9238263578</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G2" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="H2" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="I2" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="O2" t="n">
+        <v>71.95859333325515</v>
+      </c>
+      <c r="P2" t="n">
         <v>71.95859333325518</v>
-      </c>
-      <c r="P2" t="n">
-        <v>71.95859333325515</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076745</v>
+        <v>57.92057351076681</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26808,28 +26808,28 @@
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>937.680581974333</v>
+        <v>937.6805819743334</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.24900972374282</v>
+        <v>21.24900972374274</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.72612689484977</v>
+        <v>25.72612689484987</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374276</v>
+        <v>21.2490097237427</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951239</v>
+        <v>50.70958360951247</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076745</v>
+        <v>57.92057351076681</v>
       </c>
       <c r="E3" t="n">
         <v>1031.856127082531</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.2791265720401</v>
+        <v>106.2791265720406</v>
       </c>
       <c r="J4" t="n">
-        <v>76.65587923428143</v>
+        <v>76.65587923428086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959713</v>
+        <v>648.4664495959709</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374282</v>
+        <v>21.24900972374274</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.72612689484977</v>
+        <v>25.72612689484987</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.0901626244419</v>
+        <v>337.090162624442</v>
       </c>
       <c r="I8" t="n">
-        <v>201.499073850712</v>
+        <v>201.4990738507121</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>135.24257230981</v>
+        <v>135.2425723098102</v>
       </c>
       <c r="S8" t="n">
         <v>203.7140793596057</v>
@@ -27950,7 +27950,7 @@
         <v>111.032226284886</v>
       </c>
       <c r="I9" t="n">
-        <v>85.10723188858937</v>
+        <v>85.10723188858942</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.42270548643158</v>
+        <v>92.42270548643167</v>
       </c>
       <c r="S9" t="n">
         <v>169.3690802659312</v>
@@ -28029,13 +28029,13 @@
         <v>161.2985442960702</v>
       </c>
       <c r="I10" t="n">
-        <v>152.3094707112973</v>
+        <v>152.3094707112974</v>
       </c>
       <c r="J10" t="n">
-        <v>85.9747817528492</v>
+        <v>85.97478175284928</v>
       </c>
       <c r="K10" t="n">
-        <v>10.13465691657781</v>
+        <v>10.13465691657794</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.4160366515685</v>
+        <v>77.41603665156859</v>
       </c>
       <c r="R10" t="n">
-        <v>172.5970773348046</v>
+        <v>172.5970773348047</v>
       </c>
       <c r="S10" t="n">
         <v>222.1963728005765</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859303</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="C17" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="D17" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="E17" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="F17" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="G17" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="H17" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="T17" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="V17" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="W17" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="X17" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="C19" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="D19" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="E19" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="F19" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="G19" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="H19" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="I19" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28749,13 +28749,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>28.91388186835746</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>28.91388186835565</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="S19" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="T19" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="U19" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="V19" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="W19" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="X19" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="C20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="D20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="E20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="F20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="G20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="H20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="T20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="V20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="W20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="X20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="C22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="D22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="E22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="F22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="G22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="H22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="I22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28992,40 +28992,40 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>28.91388186835565</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>28.91388186835792</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="S22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="T22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="U22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="V22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="W22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="X22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="C23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="D23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="E23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="F23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="G23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="H23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="T23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="V23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="W23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="X23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
     </row>
     <row r="24">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="C25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="D25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="E25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="F25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="G25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="H25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="I25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="J25" t="n">
-        <v>28.91388186835577</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>28.91388186835849</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="S25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="T25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="U25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="V25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="W25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="X25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.22414634233535</v>
+        <v>68.22414634233525</v>
       </c>
     </row>
     <row r="26">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E37" t="n">
-        <v>46.72521440565362</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371112</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371135</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>54.14548214544428</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="C41" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="D41" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="E41" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="F41" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="G41" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="H41" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="T41" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="U41" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="V41" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="W41" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="X41" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="Y41" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="C43" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="D43" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="E43" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="F43" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="G43" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="H43" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="I43" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="S43" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="T43" t="n">
-        <v>40.54593709771348</v>
+        <v>40.54593709771461</v>
       </c>
       <c r="U43" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="V43" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="W43" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="X43" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.95859333325518</v>
+        <v>71.95859333325515</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="C44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="D44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="E44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="F44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="G44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="H44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="T44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="U44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="V44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="W44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="X44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="Y44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="C46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="D46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="E46" t="n">
-        <v>40.54593709771389</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="F46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="G46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="H46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="I46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>71.95859333325515</v>
+        <v>40.54593709771391</v>
       </c>
       <c r="S46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="T46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="U46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="V46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="W46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="X46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325518</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2328465266764519</v>
+        <v>0.2328465266764493</v>
       </c>
       <c r="H8" t="n">
-        <v>2.384639491325213</v>
+        <v>2.384639491325187</v>
       </c>
       <c r="I8" t="n">
-        <v>8.976815719693919</v>
+        <v>8.976815719693821</v>
       </c>
       <c r="J8" t="n">
-        <v>19.76255789350553</v>
+        <v>19.76255789350531</v>
       </c>
       <c r="K8" t="n">
-        <v>29.61895136771974</v>
+        <v>29.61895136771941</v>
       </c>
       <c r="L8" t="n">
-        <v>36.74492825849421</v>
+        <v>36.74492825849381</v>
       </c>
       <c r="M8" t="n">
-        <v>40.88581267727656</v>
+        <v>40.88581267727611</v>
       </c>
       <c r="N8" t="n">
-        <v>41.54738787119603</v>
+        <v>41.54738787119558</v>
       </c>
       <c r="O8" t="n">
-        <v>39.23202022155706</v>
+        <v>39.23202022155663</v>
       </c>
       <c r="P8" t="n">
-        <v>33.48362159423215</v>
+        <v>33.48362159423178</v>
       </c>
       <c r="Q8" t="n">
-        <v>25.14480535763171</v>
+        <v>25.14480535763143</v>
       </c>
       <c r="R8" t="n">
-        <v>14.62654563133968</v>
+        <v>14.62654563133952</v>
       </c>
       <c r="S8" t="n">
-        <v>5.305990226639652</v>
+        <v>5.305990226639595</v>
       </c>
       <c r="T8" t="n">
-        <v>1.019285670526169</v>
+        <v>1.019285670526157</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01862772213411614</v>
+        <v>0.01862772213411594</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1245838750986319</v>
+        <v>0.1245838750986305</v>
       </c>
       <c r="H9" t="n">
-        <v>1.203217951610471</v>
+        <v>1.203217951610458</v>
       </c>
       <c r="I9" t="n">
-        <v>4.289400962825703</v>
+        <v>4.289400962825656</v>
       </c>
       <c r="J9" t="n">
-        <v>11.77044409429662</v>
+        <v>11.77044409429649</v>
       </c>
       <c r="K9" t="n">
-        <v>20.11756372590495</v>
+        <v>20.11756372590473</v>
       </c>
       <c r="L9" t="n">
-        <v>27.05054709104285</v>
+        <v>27.05054709104256</v>
       </c>
       <c r="M9" t="n">
-        <v>31.56671256336826</v>
+        <v>31.56671256336791</v>
       </c>
       <c r="N9" t="n">
-        <v>32.40218951523584</v>
+        <v>32.40218951523548</v>
       </c>
       <c r="O9" t="n">
-        <v>29.64167312489247</v>
+        <v>29.64167312489214</v>
       </c>
       <c r="P9" t="n">
-        <v>23.7900559387905</v>
+        <v>23.79005593879024</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.9030223722394</v>
+        <v>15.90302237223922</v>
       </c>
       <c r="R9" t="n">
-        <v>7.73512866621155</v>
+        <v>7.735128666211466</v>
       </c>
       <c r="S9" t="n">
-        <v>2.314090837906603</v>
+        <v>2.314090837906579</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5021604439282572</v>
+        <v>0.5021604439282518</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008196307572278416</v>
+        <v>0.008196307572278327</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1044469358390888</v>
+        <v>0.1044469358390877</v>
       </c>
       <c r="H10" t="n">
-        <v>0.928628211369354</v>
+        <v>0.9286282113693439</v>
       </c>
       <c r="I10" t="n">
-        <v>3.141004215960963</v>
+        <v>3.141004215960929</v>
       </c>
       <c r="J10" t="n">
-        <v>7.384398363823579</v>
+        <v>7.384398363823499</v>
       </c>
       <c r="K10" t="n">
-        <v>12.13483490930505</v>
+        <v>12.13483490930491</v>
       </c>
       <c r="L10" t="n">
-        <v>15.5284108064769</v>
+        <v>15.52841080647673</v>
       </c>
       <c r="M10" t="n">
-        <v>16.37253195157644</v>
+        <v>16.37253195157626</v>
       </c>
       <c r="N10" t="n">
-        <v>15.98322973617621</v>
+        <v>15.98322973617604</v>
       </c>
       <c r="O10" t="n">
-        <v>14.76309962205594</v>
+        <v>14.76309962205578</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63238213093852</v>
+        <v>12.63238213093838</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.746006600125884</v>
+        <v>8.746006600125789</v>
       </c>
       <c r="R10" t="n">
-        <v>4.696314042364848</v>
+        <v>4.696314042364796</v>
       </c>
       <c r="S10" t="n">
-        <v>1.820225236395757</v>
+        <v>1.820225236395737</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4462732713124704</v>
+        <v>0.4462732713124655</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005697105591223033</v>
+        <v>0.005697105591222972</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32087,13 +32087,13 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32330,7 +32330,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026442</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33029,7 +33029,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,10 +33731,10 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33743,28 +33743,28 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35656,7 +35656,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O14" t="n">
         <v>508.0530008882191</v>
@@ -35668,7 +35668,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35735,13 +35735,13 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165873</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N16" t="n">
         <v>391.8320827861326</v>
@@ -35823,7 +35823,7 @@
         <v>281.9322077637029</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3693751564867</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36045,13 +36045,13 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>348.6712540385556</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>373.7708280358957</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882205</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36288,16 +36288,16 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>373.7708280358957</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>263.8709530134683</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>212.8499349886444</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>937.680581974333</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>592.3240543142074</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597753</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>74.492298481422</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>376.5472612618423</v>
       </c>
       <c r="N25" t="n">
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36607,16 +36607,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>698.288011916206</v>
       </c>
       <c r="P26" t="n">
-        <v>675.9826703737854</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>315.3055921237172</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>795.0547863356117</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -36999,16 +36999,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>558.4766521298105</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>272.5441252288663</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37391,19 +37391,19 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554011</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687133</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597691</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
